--- a/data/trans_orig/IP1013-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18C0B8D-1630-4144-B694-AE64DB641ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8853AC4-0FEC-4627-A3B4-AAE9BE63D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A1474B29-D1D2-4F18-9374-E5CF64F36B67}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1054129-5D8D-4902-9CA1-8E7629939BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -109,6 +109,42 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -121,9 +157,6 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
@@ -133,39 +166,6 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -241,9 +241,18 @@
     <t>0,91%</t>
   </si>
   <si>
+    <t>98,26%</t>
+  </si>
+  <si>
     <t>99,27%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>97,99%</t>
   </si>
   <si>
@@ -265,9 +274,6 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
@@ -289,12 +295,6 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>99,29%</t>
   </si>
   <si>
@@ -352,6 +352,30 @@
     <t>0,8%</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>99,49%</t>
   </si>
   <si>
@@ -362,30 +386,6 @@
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8853A4DF-3183-48F2-A7EF-B9156F106DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A67C-43F4-471A-8C7E-AAB3EA0F4F50}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1068,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1083,34 +1083,34 @@
         <v>22</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>204580</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M7" s="7">
-        <v>816</v>
+        <v>633</v>
       </c>
       <c r="N7" s="7">
-        <v>547101</v>
+        <v>422621</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,40 +1128,40 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -1185,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -1200,10 +1200,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -1217,55 +1217,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>204580</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="7">
+        <v>816</v>
+      </c>
+      <c r="N10" s="7">
+        <v>547101</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="7">
-        <v>633</v>
-      </c>
-      <c r="N10" s="7">
-        <v>422621</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1283,37 +1283,37 @@
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>642</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>41</v>
@@ -1325,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -1340,10 +1340,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -1355,10 +1355,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE163D2-4814-46FD-A26F-F61DACEE1426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917669AF-D410-4023-AD3D-136111F261E4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1719,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>62</v>
@@ -1814,49 +1814,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>268375</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7">
+        <v>227493</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="7">
-        <v>361</v>
-      </c>
-      <c r="I7" s="7">
-        <v>253541</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="N7" s="7">
-        <v>521916</v>
+        <v>467593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,49 +1865,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2640</v>
+        <v>685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -1931,10 +1931,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -1946,10 +1946,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -1963,55 +1963,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>268375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="I10" s="7">
-        <v>227493</v>
+        <v>253541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>650</v>
+        <v>756</v>
       </c>
       <c r="N10" s="7">
-        <v>467593</v>
+        <v>521916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,49 +2020,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2640</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>685</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -2086,10 +2086,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -2101,10 +2101,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -2130,7 +2130,7 @@
         <v>746163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>85</v>
@@ -2181,7 +2181,7 @@
         <v>1979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>91</v>
@@ -2287,7 +2287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA1BF08-EA19-43A2-AEC0-8CC308FF9C55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C68C4D-CEB9-41B4-957B-5D5486BF9473}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2465,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>101</v>
@@ -2560,49 +2560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>233856</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="N7" s="7">
-        <v>549399</v>
+        <v>483908</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,40 +2620,40 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -2677,10 +2677,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -2692,10 +2692,10 @@
         <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -2709,55 +2709,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>233856</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="7">
+        <v>756</v>
+      </c>
+      <c r="N10" s="7">
+        <v>549399</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="7">
-        <v>721</v>
-      </c>
-      <c r="N10" s="7">
-        <v>483908</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,37 +2775,37 @@
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>115</v>
@@ -2817,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -2832,10 +2832,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>119</v>

--- a/data/trans_orig/IP1013-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8853AC4-0FEC-4627-A3B4-AAE9BE63D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FDA0E2-EA46-403B-89EC-229A73069C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1054129-5D8D-4902-9CA1-8E7629939BF5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38717EBF-4D44-4991-A7EE-46F1758F8AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,343 +67,385 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
 </sst>
 </file>
@@ -414,7 +456,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -510,39 +552,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -594,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -705,13 +747,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -720,6 +755,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -784,19 +826,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A67C-43F4-471A-8C7E-AAB3EA0F4F50}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645F27C-8933-499D-98BE-619D0C0E90BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -913,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>222488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -928,34 +990,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>209574</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>432062</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -964,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>673</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -979,34 +1041,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>622</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>1295</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1015,93 +1077,93 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>218041</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>204580</v>
+        <v>1264</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>633</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>422621</v>
+        <v>1937</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1110,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,49 +1181,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>253083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>642</v>
+        <v>251941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>642</v>
+        <v>505024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,102 +1232,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281498</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>547101</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,49 +1336,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>269063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,102 +1387,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>722027</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>679757</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1401784</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,49 +1491,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>673</v>
+        <v>206049</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>286</v>
+      </c>
+      <c r="I14" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>596</v>
+      </c>
+      <c r="N14" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1264</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1937</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,55 +1542,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>673</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1264</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1937</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1085</v>
+      </c>
+      <c r="D17" s="7">
+        <v>722027</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679757</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2101</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1401784</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1541,8 +1764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917669AF-D410-4023-AD3D-136111F261E4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC4801-F683-4FCF-A16E-3D73D7188D4A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1558,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1659,49 +1882,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>223817</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>461505</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,49 +1933,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>731</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>731</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,102 +1984,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>227493</v>
+        <v>1415</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
-        <v>650</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>467593</v>
+        <v>1415</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,49 +2088,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>685</v>
+        <v>233061</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>685</v>
+        <v>500161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,102 +2139,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>268375</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>253541</v>
+        <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>661</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>756</v>
-      </c>
-      <c r="N10" s="7">
-        <v>521916</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,49 +2243,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>1979</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>154173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>447</v>
+      </c>
+      <c r="N11" s="7">
+        <v>312744</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2640</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,102 +2294,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1063</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>746163</v>
+        <v>1979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704852</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>2078</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1451015</v>
+        <v>1979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,49 +2398,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>1979</v>
+        <v>175978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>2076</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>502</v>
       </c>
       <c r="N14" s="7">
-        <v>4055</v>
+        <v>347315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,55 +2449,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1979</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2076</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4055</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="D17" s="7">
+        <v>746163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704852</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2078</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1451015</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2287,8 +2671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C68C4D-CEB9-41B4-957B-5D5486BF9473}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDEA0A8-5DA6-4BF2-91C0-16D582640946}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2304,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2405,49 +2789,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>200671</v>
+        <v>597</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
-        <v>646</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>413834</v>
+        <v>597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,49 +2840,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="I5" s="7">
-        <v>597</v>
+        <v>131057</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="N5" s="7">
-        <v>597</v>
+        <v>255221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,102 +2891,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>358</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>233856</v>
+        <v>1477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>721</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>483908</v>
+        <v>1477</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,49 +2995,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>330</v>
+      </c>
+      <c r="I8" s="7">
+        <v>209040</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1477</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>1477</v>
+        <v>467101</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,102 +3046,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281629</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>549399</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,49 +3150,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,102 +3201,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>1058</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>702297</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1447141</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +3305,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>2074</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>2074</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,55 +3356,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2074</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2074</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="I17" s="7">
+        <v>702297</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2123</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1447141</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D18" s="7">
+        <v>744844</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1013-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FDA0E2-EA46-403B-89EC-229A73069C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C839F226-BA36-49A8-8F2E-381A735741EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38717EBF-4D44-4991-A7EE-46F1758F8AD9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B455A85E-B69C-4CA7-AD6C-77EEC7000035}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,7 +112,7 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -127,13 +127,13 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,5%</t>
@@ -145,7 +145,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,97%</t>
+    <t>98,85%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -196,34 +196,40 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,39%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,35%</t>
+  </si>
+  <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,61%</t>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -259,31 +265,37 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>99,48%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,14%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,57%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -295,7 +307,7 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,43%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -307,7 +319,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -319,13 +331,13 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,01%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -337,7 +349,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -349,73 +361,61 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
 </sst>
 </file>
@@ -857,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645F27C-8933-499D-98BE-619D0C0E90BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF5E712-B386-471A-97E9-BFB66ACDCD02}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1622,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1631,13 +1637,13 @@
         <v>1937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,10 +1658,10 @@
         <v>722027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1667,10 +1673,10 @@
         <v>679757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1682,13 +1688,13 @@
         <v>1401784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,7 +1750,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC4801-F683-4FCF-A16E-3D73D7188D4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F99465-EEB1-49A4-866C-5AA5EEA46D0B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1894,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1909,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1924,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1972,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2049,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2058,13 +2064,13 @@
         <v>1415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2073,13 +2079,13 @@
         <v>1415</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2109,10 +2115,10 @@
         <v>233061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2124,10 +2130,10 @@
         <v>500161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2204,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2213,13 +2219,13 @@
         <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2228,7 +2234,7 @@
         <v>661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -2252,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2264,10 +2270,10 @@
         <v>154173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2279,7 +2285,7 @@
         <v>312744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>18</v>
@@ -2353,13 +2359,13 @@
         <v>1979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2374,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2383,13 +2389,13 @@
         <v>1979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2410,13 @@
         <v>175978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -2422,7 +2428,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2434,13 +2440,13 @@
         <v>347315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2514,13 @@
         <v>1979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2523,13 +2529,13 @@
         <v>2076</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2538,13 +2544,13 @@
         <v>4055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2565,13 @@
         <v>746163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -2574,13 +2580,13 @@
         <v>704852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>2078</v>
@@ -2589,13 +2595,13 @@
         <v>1451015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2657,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDEA0A8-5DA6-4BF2-91C0-16D582640946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C94AD-6827-4DF2-BC14-1703DD37CDE5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2810,7 +2816,7 @@
         <v>597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2861,7 +2867,7 @@
         <v>131057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>119</v>
@@ -2965,13 +2971,13 @@
         <v>1477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2986,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,10 +3022,10 @@
         <v>209040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3034,7 +3040,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3126,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3174,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3421,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3430,13 +3436,13 @@
         <v>2074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3445,13 +3451,13 @@
         <v>2074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3475,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3481,13 +3487,13 @@
         <v>702297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2123</v>
@@ -3496,13 +3502,13 @@
         <v>1447141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3564,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1013-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C839F226-BA36-49A8-8F2E-381A735741EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70F18BE-4D8B-4623-B694-73A02F94D24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B455A85E-B69C-4CA7-AD6C-77EEC7000035}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{6856A1F8-24E3-43F9-82AD-115363B128E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,31 +94,31 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -127,25 +127,25 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,85%</t>
+    <t>98,97%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -154,55 +154,55 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -211,27 +211,21 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,37%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,96%</t>
   </si>
   <si>
@@ -241,217 +235,235 @@
     <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>0,28%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -863,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF5E712-B386-471A-97E9-BFB66ACDCD02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29277977-44FE-449F-9A10-2AB07FA194BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1032,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1047,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1083,25 +1095,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1136,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>1264</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1151,10 +1163,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1264</v>
+        <v>673</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1187,10 +1199,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>253083</v>
+        <v>251941</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
@@ -1202,10 +1214,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I8" s="7">
-        <v>251941</v>
+        <v>253083</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
@@ -1238,25 +1250,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1342,10 +1354,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>141515</v>
+        <v>127548</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1357,10 +1369,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>127548</v>
+        <v>141515</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1393,25 +1405,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1497,10 +1509,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>206049</v>
+        <v>194097</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1512,10 +1524,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>194097</v>
+        <v>206049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1548,25 +1560,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1601,10 +1613,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>673</v>
+        <v>1264</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>51</v>
@@ -1616,10 +1628,10 @@
         <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1264</v>
+        <v>673</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>53</v>
@@ -1643,7 +1655,7 @@
         <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,31 +1664,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1085</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>722027</v>
+        <v>679757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1016</v>
+        <v>1085</v>
       </c>
       <c r="I17" s="7">
-        <v>679757</v>
+        <v>722027</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1688,13 +1700,13 @@
         <v>1401784</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,25 +1715,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F99465-EEB1-49A4-866C-5AA5EEA46D0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FDF4B4-A29C-4E83-BDC4-969199B8279D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1787,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1900,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1915,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1930,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,31 +1951,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1978,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1990,25 +2002,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2043,34 +2055,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2079,13 +2091,13 @@
         <v>1415</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,34 +2106,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>335</v>
+      </c>
+      <c r="D8" s="7">
+        <v>233061</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>335</v>
-      </c>
-      <c r="I8" s="7">
-        <v>233061</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>706</v>
@@ -2130,10 +2142,10 @@
         <v>500161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2145,25 +2157,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2198,34 +2210,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>661</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2234,7 +2246,7 @@
         <v>661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -2249,34 +2261,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>219</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154173</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>219</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154173</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2285,7 +2297,7 @@
         <v>312744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>18</v>
@@ -2300,25 +2312,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2353,34 +2365,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1979</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2389,13 +2401,13 @@
         <v>1979</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,34 +2416,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>175978</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -2440,13 +2452,13 @@
         <v>347315</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,25 +2467,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2511,31 +2523,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1979</v>
+        <v>2076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2076</v>
+        <v>1979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2544,13 +2556,13 @@
         <v>4055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2571,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1063</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>746163</v>
+        <v>704852</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>109</v>
@@ -2571,22 +2583,22 @@
         <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="I17" s="7">
+        <v>746163</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704852</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>2078</v>
@@ -2595,13 +2607,13 @@
         <v>1451015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,25 +2622,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2657,7 +2669,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C94AD-6827-4DF2-BC14-1703DD37CDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AFBFBD-718D-4ED8-85AA-05D8102F5C38}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2795,34 +2807,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>597</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2831,13 +2843,13 @@
         <v>597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,34 +2858,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131057</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>210</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131057</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -2882,10 +2894,10 @@
         <v>255221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2897,25 +2909,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2950,34 +2962,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1477</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2992,7 +3004,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,34 +3013,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>330</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209040</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>330</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209040</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -3040,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3052,25 +3064,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3117,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3132,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3147,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,31 +3168,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>188572</v>
+        <v>188899</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>188899</v>
+        <v>188572</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3195,7 +3207,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3207,25 +3219,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3272,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3287,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3302,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,31 +3323,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>174048</v>
+        <v>173301</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>173301</v>
+        <v>174048</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3350,7 +3362,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3362,25 +3374,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3415,34 +3427,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2074</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3457,7 +3469,7 @@
         <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,34 +3478,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D17" s="7">
+        <v>702297</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
         <v>1065</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744844</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I17" s="7">
-        <v>702297</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>2123</v>
@@ -3502,13 +3514,13 @@
         <v>1447141</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,25 +3529,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3564,7 +3576,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
